--- a/testcase/testcase logs.xlsx
+++ b/testcase/testcase logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f296fcd61b6b9eeb/Documents/GitHub/internship-portal/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D0E410-6C04-4FCE-9732-D7A5738BFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{F8D0E410-6C04-4FCE-9732-D7A5738BFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{811A585E-FFF1-4914-9010-5A9BDC233086}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="562" xr2:uid="{D1AE62D6-A637-493D-B8B0-8B44AC5396CD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>Test Cases</t>
   </si>
@@ -63,15 +62,9 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>User valid login</t>
-  </si>
-  <si>
     <t xml:space="preserve">User able to log in successfully </t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid ID </t>
-  </si>
-  <si>
     <t>User receives "Login failed. Invalid credentials or account not approved."</t>
   </si>
   <si>
@@ -81,18 +74,12 @@
     <t xml:space="preserve">able to login with invalid ID/failure to print message </t>
   </si>
   <si>
-    <t>User logout</t>
-  </si>
-  <si>
     <t>User able to log out</t>
   </si>
   <si>
     <t>Unable to logout despite choosing log out option</t>
   </si>
   <si>
-    <t xml:space="preserve">User password change </t>
-  </si>
-  <si>
     <t>User able to change password</t>
   </si>
   <si>
@@ -105,39 +92,18 @@
     <t xml:space="preserve">student user unable to log in despite student information inside of the user.txt file </t>
   </si>
   <si>
-    <t xml:space="preserve">internship listed according to student profile </t>
-  </si>
-  <si>
-    <t>internship that do not match student profile are being listed as well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass </t>
-  </si>
-  <si>
     <t>Internships are still being listed even though visibility toggled OFF</t>
   </si>
   <si>
-    <t>student can only view internship opportunity based on their profile, with visibility toggled ON</t>
-  </si>
-  <si>
-    <t>internship visibility toggled off</t>
-  </si>
-  <si>
     <t>with visibility toggled off, student should not see any internship that has been toggled OFF</t>
   </si>
   <si>
-    <t xml:space="preserve">Student user should be able to still be able to see internship applied for even after visibility is toggled OFF ("PENDING" , "SUCCESSFUL" , UNSUCCESSFUL") </t>
-  </si>
-  <si>
     <t>internships applied for still able to be viewed with application status being shown</t>
   </si>
   <si>
     <t xml:space="preserve">unable to view internships </t>
   </si>
   <si>
-    <t>if application status is "SUCCESSFUL", students can accept the internship placement</t>
-  </si>
-  <si>
     <t xml:space="preserve">students able to accept the internship placement </t>
   </si>
   <si>
@@ -150,21 +116,9 @@
     <t xml:space="preserve">changes not reflected </t>
   </si>
   <si>
-    <t xml:space="preserve">when visibility toggled OFF , student user should be able to see status change for internship applied  (PENDING -&gt; SUCCESSSFUL, PENDING -&gt; UNSUCCESSFUL) </t>
-  </si>
-  <si>
-    <t>Student can only accept one internship placement</t>
-  </si>
-  <si>
     <t xml:space="preserve">students able to accept more than 1 or internship application not withdrawn. </t>
   </si>
   <si>
-    <t xml:space="preserve">allow students to request withdrawal for their internship application AFTER placement confimation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow students to request withdrawal for their internship application BEFORE placement confimation </t>
-  </si>
-  <si>
     <t xml:space="preserve">students able to request withdrawal before placement confirmation </t>
   </si>
   <si>
@@ -192,18 +146,9 @@
     <t>unable to login despite approval</t>
   </si>
   <si>
-    <t>company represenattive able to create internship opportunities</t>
-  </si>
-  <si>
     <t xml:space="preserve">successfully created internship opportunity ( capped at 5 ) </t>
   </si>
   <si>
-    <t xml:space="preserve">unable to create / over the limit of 5 </t>
-  </si>
-  <si>
-    <t>if internship positions are filled, students will not be able to apply anymore</t>
-  </si>
-  <si>
     <t>unable to view internship that has already been filled up</t>
   </si>
   <si>
@@ -226,9 +171,6 @@
   </si>
   <si>
     <t xml:space="preserve">unable to approv e  / reject </t>
-  </si>
-  <si>
-    <t>Internship opportunity status becomes "Filled" only when all available slots are confirmed by students</t>
   </si>
   <si>
     <t>Internship opportunity becomes filled and unable to view when all available slots are filled</t>
@@ -265,9 +207,6 @@
     <t xml:space="preserve">Career Center Staff registration via user.txt file </t>
   </si>
   <si>
-    <t>Student registration is automatic from user.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">unable to log in despite valid credentials and information is logged in user.txt </t>
   </si>
   <si>
@@ -295,12 +234,6 @@
     <t>unable to approve or reject the withdrawal request</t>
   </si>
   <si>
-    <t>Career Center Staff able to approve or reject student withdrawl requests before placement confimation</t>
-  </si>
-  <si>
-    <t>Career Center Staff able to approve or reject student withdrawl requests after placement confimation</t>
-  </si>
-  <si>
     <t>Career Center Staff able to generate comprehension reports regarding internship opportunities created</t>
   </si>
   <si>
@@ -308,6 +241,121 @@
   </si>
   <si>
     <t>incorrect display, unable to display</t>
+  </si>
+  <si>
+    <t>filter options do not remain after changing page, wrong internship filtered with right filters 
+chosen</t>
+  </si>
+  <si>
+    <t>internships that exceed the filter timeframe is showned / internships within the timeframe is not 
+shown.</t>
+  </si>
+  <si>
+    <t>Filtering of closing date , FROM &amp; TO</t>
+  </si>
+  <si>
+    <t>year 1 and year 2 only able to view basic level internships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internship that are not basic level are being shown as well. </t>
+  </si>
+  <si>
+    <t>Filtering of Major</t>
+  </si>
+  <si>
+    <t>incorrect display, unexpected behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtering of Level </t>
+  </si>
+  <si>
+    <t>Filtering of Available Slots</t>
+  </si>
+  <si>
+    <t>successful display of internships with the right amount of available slots , e.g. 1 available 
+slots means all internships that has &gt;= 1 available slots will be shown (all users)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful display of internships with right filters(choosing another major for the student will result in no internships being displayed  as student can only view internships based on their profile) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">internship opportunity within the filtered time frame being displayed </t>
+  </si>
+  <si>
+    <t>succesful filtering with filters options chosen saved while changing menu page,displaying 
+consistent internships results</t>
+  </si>
+  <si>
+    <t>Student user for Y1/Y2 students only  can view basic internships with visibility toggled ON</t>
+  </si>
+  <si>
+    <t>Student user cannot view internship when visibility toggled OFF</t>
+  </si>
+  <si>
+    <t>Student user for Y3/Y4 students can view all internships opportunity with visibility toggled ON</t>
+  </si>
+  <si>
+    <t>year 3 and year 4 able to view all level internships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interships hidden from year 3 and year 4 students </t>
+  </si>
+  <si>
+    <t>Company representative's internship FILLED, students will not be able to apply anymore</t>
+  </si>
+  <si>
+    <t>Company representative's internship opportunity status becomes "Filled" only when all available slots are confirmed by students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student user allow to request withdrawal for their internship application BEFORE placement confimation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student user allow to request withdrawal for their internship application AFTER placement confimation </t>
+  </si>
+  <si>
+    <t>Student user can only accept one internship placement</t>
+  </si>
+  <si>
+    <t>Student user can accept the internship placement if application status is "SUCCESSFUL".</t>
+  </si>
+  <si>
+    <t>Student user registration is automatic from user.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All user Invalid ID </t>
+  </si>
+  <si>
+    <t>Company represenattive able to create internship opportunities</t>
+  </si>
+  <si>
+    <t>All user valid login</t>
+  </si>
+  <si>
+    <t>All user logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All user password change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student user should be able to still be able to see internship applied for even after visibility is toggled OFF 
+("PENDING" , "SUCCESSFUL" , UNSUCCESSFUL") </t>
+  </si>
+  <si>
+    <t>Student user should be able to see status change for internship applied  
+(PENDING -&gt; SUCCESSSFUL, PENDING -&gt; UNSUCCESSFUL)  even when visibility OFF</t>
+  </si>
+  <si>
+    <t>Filters chosen will stay when users changed menu page, going back to viewing internships will keep the filter as it is, 
+option to change filter is available after selecting</t>
+  </si>
+  <si>
+    <t>Career Center Staff able to approve or reject student withdrawal requests before placement confirmation</t>
+  </si>
+  <si>
+    <t>Career Center Staff able to approve or reject student withdrawal requests after placement confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unable to create internships / creating over the limit of 5 </t>
   </si>
 </sst>
 </file>
@@ -682,15 +730,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435AC98-8452-43CD-8EFB-5D58A5198FF9}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="129.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="123.6640625" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
     <col min="3" max="3" width="78.88671875" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -710,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -724,43 +772,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -768,13 +816,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -782,13 +830,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -796,27 +844,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -824,41 +872,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>37</v>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -866,41 +914,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -908,13 +956,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -922,13 +970,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -936,13 +984,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -950,13 +998,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -964,13 +1012,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -978,13 +1026,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -992,13 +1040,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1006,13 +1054,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1020,13 +1068,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1034,13 +1082,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1048,13 +1096,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1062,13 +1110,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1076,13 +1124,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1090,13 +1138,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1104,15 +1152,99 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
         <v>7</v>
       </c>
     </row>

--- a/testcase/testcase logs.xlsx
+++ b/testcase/testcase logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f296fcd61b6b9eeb/Documents/GitHub/internship-portal/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{F8D0E410-6C04-4FCE-9732-D7A5738BFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{811A585E-FFF1-4914-9010-5A9BDC233086}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{F8D0E410-6C04-4FCE-9732-D7A5738BFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CDF1FD6-E6A3-4731-8375-79A1EE68B7C9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="562" xr2:uid="{D1AE62D6-A637-493D-B8B0-8B44AC5396CD}"/>
   </bookViews>
@@ -411,6 +411,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9435AC98-8452-43CD-8EFB-5D58A5198FF9}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
